--- a/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42954\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326219DF-4400-4E86-8781-03B8A811131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB92523-CB28-46B3-9F3D-21550BD23075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -61,9 +61,6 @@
     <t>型号</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>采购数量</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>${xinghao}</t>
   </si>
   <si>
-    <t>${desc}</t>
-  </si>
-  <si>
     <t>${caigouNum}</t>
   </si>
   <si>
@@ -136,6 +130,14 @@
   </si>
   <si>
     <t>卖方签字：${saller}</t>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>${headImage}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,8 +145,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="\$#,##0;\-\$#,##0"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -212,6 +214,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -480,7 +483,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,10 +495,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -905,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -916,7 +919,7 @@
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
@@ -1014,92 +1017,92 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="177" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -1123,7 +1126,7 @@
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -1147,19 +1150,19 @@
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="49"/>
       <c r="E16" s="53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="54"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1169,14 +1172,13 @@
       <c r="G17" s="51"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1186,7 +1188,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1196,7 +1198,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1205,9 +1207,8 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1">
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1216,14 +1217,9 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1">
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1">
-      <c r="I25" s="15"/>
-    </row>
+    </row>
+    <row r="24" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="25" spans="1:8" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A13:H13"/>

--- a/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42954\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB92523-CB28-46B3-9F3D-21550BD23075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23325" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,6 +55,9 @@
     <t>型号</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>采购数量</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
     <t>${xinghao}</t>
   </si>
   <si>
+    <t>${headImage}</t>
+  </si>
+  <si>
     <t>${caigouNum}</t>
   </si>
   <si>
@@ -130,25 +130,21 @@
   </si>
   <si>
     <t>卖方签字：${saller}</t>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>${headImage}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,7 +184,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -201,25 +196,167 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +365,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -455,35 +784,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,11 +1114,89 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -510,141 +1207,62 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,19 +1520,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
@@ -926,326 +1544,326 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:8">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="177" customHeight="1" spans="1:8">
+      <c r="A8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
+      <c r="A9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
+      <c r="A10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A15" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A16" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="177" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:8">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
-      <c r="E17" s="55"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="H19" s="13"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="8:8">
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" ht="39.95" customHeight="1" spans="8:8">
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1"/>
-    <row r="25" spans="1:8" ht="24" customHeight="1"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+    </row>
+    <row r="22" ht="17.1" customHeight="1" spans="1:8">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+    </row>
+    <row r="23" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+    </row>
+    <row r="24" ht="21.95" customHeight="1"/>
+    <row r="25" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
@@ -137,14 +137,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,16 +193,106 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -213,24 +303,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,30 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,85 +342,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,19 +364,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,163 +460,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,24 +774,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,6 +794,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -835,26 +834,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,7 +845,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,157 +864,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,10 +1095,13 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,10 +1110,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,15 +1193,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1526,16 +1513,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="44.125" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
@@ -1650,194 +1637,146 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="177" customHeight="1" spans="1:8">
+    <row r="8" ht="66" customHeight="1" spans="1:8">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="49"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="54"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="55"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="8:8">
-      <c r="H18" s="55"/>
-    </row>
-    <row r="19" ht="39.95" customHeight="1" spans="8:8">
-      <c r="H19" s="55"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-    </row>
-    <row r="22" ht="17.1" customHeight="1" spans="1:8">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-    </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-    </row>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:H1"/>

--- a/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9990"/>
+    <workbookView windowWidth="16365" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:H17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>订单信息</t>
   </si>
@@ -72,7 +73,19 @@
 （CNY）</t>
   </si>
   <si>
-    <t>${no}</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>${name}</t>
@@ -137,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -194,7 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +215,88 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,27 +304,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,49 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -303,9 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,22 +349,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -376,19 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,157 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,6 +787,60 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,21 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -817,50 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,152 +893,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1122,12 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1513,10 +1532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1639,143 +1658,169 @@
     </row>
     <row r="8" ht="66" customHeight="1" spans="1:8">
       <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="28">
+        <v>7</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="66" customHeight="1" spans="1:8">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="A10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+    <row r="11" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
+      <c r="A11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="A12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A14" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="A14" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A15" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="55"/>
+      <c r="A17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1788,18 +1833,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="E17:H18"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/订单_templete.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42954\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55BCCC-7C39-414E-A9BC-FF1C44E4F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23325" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>订单信息</t>
   </si>
@@ -28,7 +22,13 @@
     <t>客户:</t>
   </si>
   <si>
+    <t>${kehu}</t>
+  </si>
+  <si>
     <t>订单名称:</t>
+  </si>
+  <si>
+    <t>${orderName}</t>
   </si>
   <si>
     <t>联系人:</t>
@@ -72,13 +72,22 @@
 （CNY）</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>产品名称左边栏测试</t>
+  </si>
+  <si>
     <t>${name}</t>
   </si>
   <si>
+    <t>${headImage}</t>
+  </si>
+  <si>
     <t>${xinghao}</t>
   </si>
   <si>
-    <t>${headImage}</t>
+    <t>哈哈测试</t>
   </si>
   <si>
     <t>${danwei}</t>
@@ -87,6 +96,9 @@
     <t>${xiaoji}</t>
   </si>
   <si>
+    <t>左边栏测试测试</t>
+  </si>
+  <si>
     <t>产品总金额:</t>
   </si>
   <si>
@@ -121,37 +133,21 @@
   </si>
   <si>
     <t>卖方签字：${saller}</t>
-  </si>
-  <si>
-    <t>${kehu}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${orderName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试产品名称1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,7 +187,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -200,27 +195,169 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,18 +372,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -468,31 +791,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,68 +1115,26 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -625,6 +1193,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -634,12 +1208,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -647,17 +1215,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -915,19 +1527,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -939,296 +1551,306 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="66" customHeight="1" spans="1:8">
+      <c r="A8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" ht="66" customHeight="1" spans="1:8">
+      <c r="A9" s="31"/>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="66" customHeight="1" spans="1:8">
+      <c r="A10" s="31"/>
+      <c r="B10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
+      <c r="A11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="66" customHeight="1" spans="1:8">
+      <c r="A12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+    <row r="16" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A16" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+    <row r="17" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+    <row r="18" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="52"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="66" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="66" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
+    <row r="19" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>